--- a/dr/protected/commands/template/m_template_one.xlsx
+++ b/dr/protected/commands/template/m_template_one.xlsx
@@ -914,36 +914,48 @@
   </si>
   <si>
     <r>
+      <t>新合同5天</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>新合同5天</t>
+      <t>安排安</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>内</t>
+      <t>装</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>安排安</t>
+      <t>比例 （成功5天安</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -952,52 +964,52 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>比例 （成功5天安</t>
+      <t>客</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>装</t>
+      <t>户数</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>客</t>
+      <t>目/今月新IA</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>户数</t>
+      <t>需安装</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>目/今月新IA服</t>
+      <t>服</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1006,7 +1018,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
@@ -1015,7 +1027,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1024,7 +1036,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
@@ -1340,14 +1352,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1432,6 +1444,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1440,7 +1465,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1454,35 +1503,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1490,7 +1511,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1504,17 +1525,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1526,32 +1548,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1563,7 +1564,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,21 +1586,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1600,17 +1607,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1660,13 +1684,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,31 +1708,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,90 +1840,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1822,37 +1852,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,37 +1876,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1906,13 +1918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,13 +1930,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,46 +2024,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2055,17 +2039,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2087,9 +2080,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2099,6 +2118,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2118,17 +2148,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2137,236 +2161,236 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2385,10 +2409,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
@@ -2406,7 +2430,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,10 +2448,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2445,7 +2469,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2454,28 +2478,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2490,28 +2514,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2520,28 +2544,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2556,16 +2580,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2574,34 +2598,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2613,31 +2637,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2649,34 +2673,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2688,31 +2715,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2721,19 +2748,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2745,19 +2772,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2768,10 +2795,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2803,26 +2830,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3187,8 +3214,8 @@
   <sheetPr/>
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3989,7 +4016,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="129" t="s">
+      <c r="D76" s="130" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="53">
@@ -4007,7 +4034,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="129" t="s">
+      <c r="D77" s="130" t="s">
         <v>85</v>
       </c>
       <c r="E77" s="53">
@@ -4025,7 +4052,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="130" t="s">
+      <c r="D78" s="131" t="s">
         <v>88</v>
       </c>
       <c r="E78" s="53">
@@ -4043,7 +4070,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="130" t="s">
+      <c r="D79" s="131" t="s">
         <v>88</v>
       </c>
       <c r="E79" s="53">
@@ -4061,7 +4088,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="130" t="s">
+      <c r="D80" s="131" t="s">
         <v>91</v>
       </c>
       <c r="E80" s="53">
@@ -4079,7 +4106,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="130" t="s">
+      <c r="D81" s="131" t="s">
         <v>91</v>
       </c>
       <c r="E81" s="53">
@@ -4097,7 +4124,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="129" t="s">
+      <c r="D82" s="130" t="s">
         <v>85</v>
       </c>
       <c r="E82" s="53">
@@ -4115,7 +4142,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="129" t="s">
+      <c r="D83" s="130" t="s">
         <v>85</v>
       </c>
       <c r="E83" s="53">
@@ -4541,11 +4568,11 @@
     </row>
     <row r="107" s="3" customFormat="1" ht="99" spans="1:6">
       <c r="A107" s="92"/>
-      <c r="B107" s="93" t="s">
+      <c r="B107" s="101" t="s">
         <v>145</v>
       </c>
       <c r="C107" s="100">
-        <f>B51/IF(B33=0,1,B33)</f>
+        <f>B51/IF(B34=0,1,B34)</f>
         <v>0</v>
       </c>
       <c r="D107" s="95" t="s">
@@ -4575,7 +4602,7 @@
         <f>IF(C108&gt;0.9,5,IF(C108&gt;0.7,4,IF(C108&gt;0.5,3,IF(C108&gt;0.3,2,IF(C108&gt;0.1,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F108" s="101"/>
+      <c r="F108" s="102"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="66" spans="1:6">
       <c r="A109" s="92"/>
@@ -4589,11 +4616,11 @@
       <c r="D109" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="E109" s="102">
+      <c r="E109" s="103">
         <f>IF(C109&gt;0.2,3,IF(C109&gt;0.1,5,IF(C109&gt;=0,1,0)))</f>
         <v>1</v>
       </c>
-      <c r="F109" s="101"/>
+      <c r="F109" s="102"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="33" spans="1:6">
       <c r="A110" s="92"/>
@@ -4610,7 +4637,7 @@
       <c r="E110" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="F110" s="101"/>
+      <c r="F110" s="102"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="99" spans="1:6">
       <c r="A111" s="92" t="s">
@@ -4630,7 +4657,7 @@
         <f>IF(C111&gt;0.05,0,IF(C111&gt;0,1,IF(C111&gt;-0.1,2,IF(C111&gt;-0.2,3,IF(C111&gt;-0.3,4,5)))))</f>
         <v>2</v>
       </c>
-      <c r="F111" s="101"/>
+      <c r="F111" s="102"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="99" spans="1:6">
       <c r="A112" s="92"/>
@@ -4648,25 +4675,25 @@
         <f>IF(C112&gt;0.95,5,IF(C112&gt;0.9,4,IF(C112&gt;0.85,3,IF(C112&gt;0.8,2,IF(C112&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F112" s="101"/>
+      <c r="F112" s="102"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="66" spans="1:6">
       <c r="A113" s="92"/>
       <c r="B113" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="C113" s="103">
+      <c r="C113" s="104">
         <f>B46/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
       <c r="D113" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="E113" s="104">
+      <c r="E113" s="105">
         <f>IF(C113&gt;0.15,5,IF(C113&gt;0.1,3,IF(C113&gt;0.05,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F113" s="101"/>
+      <c r="F113" s="102"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="99" spans="1:6">
       <c r="A114" s="92"/>
@@ -4684,14 +4711,14 @@
         <f>IF(C114&gt;0.95,5,IF(C114&gt;0.9,4,IF(C114&gt;0.85,3,IF(C114&gt;0.8,2,IF(C114&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F114" s="101"/>
+      <c r="F114" s="102"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A115" s="92"/>
       <c r="B115" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C115" s="103">
+      <c r="C115" s="104">
         <f>B47</f>
         <v>0</v>
       </c>
@@ -4701,7 +4728,7 @@
       <c r="E115" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="F115" s="101"/>
+      <c r="F115" s="102"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
       <c r="A116" s="61" t="s">
@@ -4717,950 +4744,950 @@
       </c>
     </row>
     <row r="117" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A117" s="105" t="s">
+      <c r="A117" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="B117" s="106" t="s">
+      <c r="B117" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="C117" s="107">
+      <c r="C117" s="108">
         <f>B62</f>
         <v>0</v>
       </c>
-      <c r="D117" s="108" t="s">
+      <c r="D117" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="E117" s="109">
+      <c r="E117" s="110">
         <f>IF(C117&gt;5,0,IF(C117&gt;3,3,IF(C117&gt;1,4,5)))</f>
         <v>5</v>
       </c>
-      <c r="F117" s="110"/>
+      <c r="F117" s="111"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A118" s="111" t="s">
+      <c r="A118" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="B118" s="106" t="s">
+      <c r="B118" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="C118" s="112">
+      <c r="C118" s="113">
         <f>B63/IF(B69=0,1,B69)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="113" t="s">
+      <c r="D118" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="E118" s="109">
+      <c r="E118" s="110">
         <f>IF(C118&gt;0.3,0,IF(C118&gt;0.2,1,IF(C118&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F118" s="110"/>
+      <c r="F118" s="111"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="49.5" spans="1:6">
-      <c r="A119" s="111"/>
-      <c r="B119" s="106" t="s">
+      <c r="A119" s="112"/>
+      <c r="B119" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="C119" s="112">
+      <c r="C119" s="113">
         <f>B72/IF(B71=0,1,B71)</f>
         <v>0</v>
       </c>
-      <c r="D119" s="108" t="s">
+      <c r="D119" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="E119" s="109">
+      <c r="E119" s="110">
         <f>IF(C119&gt;0.6,1,IF(C119&gt;0.2,3,5))</f>
         <v>5</v>
       </c>
-      <c r="F119" s="110"/>
+      <c r="F119" s="111"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A120" s="114" t="s">
+      <c r="A120" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="B120" s="106" t="s">
+      <c r="B120" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="C120" s="115">
+      <c r="C120" s="116">
         <f>B64/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D120" s="113" t="s">
+      <c r="D120" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="E120" s="109">
+      <c r="E120" s="110">
         <f>IF(C120&gt;0.15,0,IF(C120&gt;0.1,1,IF(C120&gt;0.05,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F120" s="110"/>
+      <c r="F120" s="111"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A121" s="114"/>
-      <c r="B121" s="106" t="s">
+      <c r="A121" s="115"/>
+      <c r="B121" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="115">
+      <c r="C121" s="116">
         <f>B67/(IF(B66=0,1,B66)/6)</f>
         <v>0</v>
       </c>
-      <c r="D121" s="113" t="s">
+      <c r="D121" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="E121" s="109">
+      <c r="E121" s="110">
         <f>IF(C121&gt;1,5,IF(C121&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F121" s="110"/>
+      <c r="F121" s="111"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A122" s="114"/>
-      <c r="B122" s="106" t="s">
+      <c r="A122" s="115"/>
+      <c r="B122" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="C122" s="107">
+      <c r="C122" s="108">
         <f>B68/(IF(B66=0,1,B66)/30)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="113" t="s">
+      <c r="D122" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="E122" s="109">
+      <c r="E122" s="110">
         <f>IF(C122&gt;1,5,IF(C122&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F122" s="110"/>
+      <c r="F122" s="111"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
-      <c r="A123" s="114"/>
-      <c r="B123" s="106" t="s">
+      <c r="A123" s="115"/>
+      <c r="B123" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="C123" s="107"/>
-      <c r="D123" s="113" t="s">
+      <c r="C123" s="108"/>
+      <c r="D123" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="E123" s="109" t="s">
+      <c r="E123" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F123" s="110"/>
+      <c r="F123" s="111"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A124" s="116" t="s">
+      <c r="A124" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="B124" s="117" t="s">
+      <c r="B124" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="C124" s="118">
+      <c r="C124" s="119">
         <f>B65/IF(B70=0,1,B70)</f>
         <v>0</v>
       </c>
-      <c r="D124" s="119" t="s">
+      <c r="D124" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="E124" s="109">
+      <c r="E124" s="110">
         <f>IF(C124&gt;0.3,0,IF(C124&gt;0.2,1,IF(C124&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F124" s="110"/>
+      <c r="F124" s="111"/>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:6">
       <c r="A125" s="4"/>
-      <c r="B125" s="120"/>
-      <c r="C125" s="121"/>
-      <c r="D125" s="122"/>
-      <c r="E125" s="123"/>
-      <c r="F125" s="124"/>
+      <c r="B125" s="121"/>
+      <c r="C125" s="122"/>
+      <c r="D125" s="123"/>
+      <c r="E125" s="124"/>
+      <c r="F125" s="125"/>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:6">
       <c r="A126" s="4"/>
-      <c r="B126" s="120"/>
-      <c r="C126" s="121"/>
-      <c r="D126" s="122"/>
-      <c r="E126" s="123"/>
-      <c r="F126" s="124"/>
+      <c r="B126" s="121"/>
+      <c r="C126" s="122"/>
+      <c r="D126" s="123"/>
+      <c r="E126" s="124"/>
+      <c r="F126" s="125"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:6">
       <c r="A127" s="4"/>
-      <c r="B127" s="120"/>
-      <c r="C127" s="121"/>
-      <c r="D127" s="122"/>
-      <c r="E127" s="123"/>
-      <c r="F127" s="124"/>
+      <c r="B127" s="121"/>
+      <c r="C127" s="122"/>
+      <c r="D127" s="123"/>
+      <c r="E127" s="124"/>
+      <c r="F127" s="125"/>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:6">
       <c r="A128" s="4"/>
-      <c r="B128" s="120"/>
-      <c r="C128" s="121"/>
-      <c r="D128" s="122"/>
-      <c r="E128" s="123"/>
-      <c r="F128" s="124"/>
+      <c r="B128" s="121"/>
+      <c r="C128" s="122"/>
+      <c r="D128" s="123"/>
+      <c r="E128" s="124"/>
+      <c r="F128" s="125"/>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:6">
       <c r="A129" s="4"/>
-      <c r="B129" s="120"/>
-      <c r="C129" s="121"/>
-      <c r="D129" s="122"/>
-      <c r="E129" s="123"/>
-      <c r="F129" s="124"/>
+      <c r="B129" s="121"/>
+      <c r="C129" s="122"/>
+      <c r="D129" s="123"/>
+      <c r="E129" s="124"/>
+      <c r="F129" s="125"/>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:6">
       <c r="A130" s="4"/>
-      <c r="B130" s="120"/>
-      <c r="C130" s="121"/>
-      <c r="D130" s="122"/>
-      <c r="E130" s="123"/>
-      <c r="F130" s="124"/>
+      <c r="B130" s="121"/>
+      <c r="C130" s="122"/>
+      <c r="D130" s="123"/>
+      <c r="E130" s="124"/>
+      <c r="F130" s="125"/>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:6">
       <c r="A131" s="4"/>
-      <c r="B131" s="120"/>
-      <c r="C131" s="121"/>
-      <c r="D131" s="122"/>
-      <c r="E131" s="123"/>
-      <c r="F131" s="124"/>
+      <c r="B131" s="121"/>
+      <c r="C131" s="122"/>
+      <c r="D131" s="123"/>
+      <c r="E131" s="124"/>
+      <c r="F131" s="125"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:6">
       <c r="A132" s="4"/>
-      <c r="B132" s="120"/>
-      <c r="C132" s="121"/>
-      <c r="D132" s="122"/>
-      <c r="E132" s="123"/>
-      <c r="F132" s="124"/>
+      <c r="B132" s="121"/>
+      <c r="C132" s="122"/>
+      <c r="D132" s="123"/>
+      <c r="E132" s="124"/>
+      <c r="F132" s="125"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:6">
       <c r="A133" s="4"/>
-      <c r="B133" s="120"/>
-      <c r="C133" s="121"/>
-      <c r="D133" s="122"/>
-      <c r="E133" s="123"/>
-      <c r="F133" s="124"/>
+      <c r="B133" s="121"/>
+      <c r="C133" s="122"/>
+      <c r="D133" s="123"/>
+      <c r="E133" s="124"/>
+      <c r="F133" s="125"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:6">
       <c r="A134" s="4"/>
-      <c r="B134" s="120"/>
-      <c r="C134" s="121"/>
-      <c r="D134" s="122"/>
-      <c r="E134" s="123"/>
-      <c r="F134" s="124"/>
+      <c r="B134" s="121"/>
+      <c r="C134" s="122"/>
+      <c r="D134" s="123"/>
+      <c r="E134" s="124"/>
+      <c r="F134" s="125"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:6">
       <c r="A135" s="4"/>
-      <c r="B135" s="120"/>
-      <c r="C135" s="121"/>
-      <c r="D135" s="122"/>
-      <c r="E135" s="123"/>
-      <c r="F135" s="124"/>
+      <c r="B135" s="121"/>
+      <c r="C135" s="122"/>
+      <c r="D135" s="123"/>
+      <c r="E135" s="124"/>
+      <c r="F135" s="125"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:6">
       <c r="A136" s="4"/>
-      <c r="B136" s="120"/>
-      <c r="C136" s="121"/>
-      <c r="D136" s="122"/>
-      <c r="E136" s="123"/>
-      <c r="F136" s="124"/>
+      <c r="B136" s="121"/>
+      <c r="C136" s="122"/>
+      <c r="D136" s="123"/>
+      <c r="E136" s="124"/>
+      <c r="F136" s="125"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:6">
       <c r="A137" s="4"/>
-      <c r="B137" s="120"/>
-      <c r="C137" s="121"/>
-      <c r="D137" s="122"/>
-      <c r="E137" s="123"/>
-      <c r="F137" s="124"/>
+      <c r="B137" s="121"/>
+      <c r="C137" s="122"/>
+      <c r="D137" s="123"/>
+      <c r="E137" s="124"/>
+      <c r="F137" s="125"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:6">
       <c r="A138" s="4"/>
-      <c r="B138" s="120"/>
-      <c r="C138" s="121"/>
-      <c r="D138" s="122"/>
-      <c r="E138" s="123"/>
-      <c r="F138" s="124"/>
+      <c r="B138" s="121"/>
+      <c r="C138" s="122"/>
+      <c r="D138" s="123"/>
+      <c r="E138" s="124"/>
+      <c r="F138" s="125"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:6">
       <c r="A139" s="4"/>
-      <c r="B139" s="120"/>
-      <c r="C139" s="121"/>
-      <c r="D139" s="122"/>
-      <c r="E139" s="123"/>
-      <c r="F139" s="124"/>
+      <c r="B139" s="121"/>
+      <c r="C139" s="122"/>
+      <c r="D139" s="123"/>
+      <c r="E139" s="124"/>
+      <c r="F139" s="125"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:6">
       <c r="A140" s="4"/>
-      <c r="B140" s="120"/>
-      <c r="C140" s="121"/>
-      <c r="D140" s="122"/>
-      <c r="E140" s="123"/>
-      <c r="F140" s="124"/>
+      <c r="B140" s="121"/>
+      <c r="C140" s="122"/>
+      <c r="D140" s="123"/>
+      <c r="E140" s="124"/>
+      <c r="F140" s="125"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
       <c r="A141" s="4"/>
-      <c r="B141" s="120"/>
-      <c r="C141" s="121"/>
-      <c r="D141" s="122"/>
-      <c r="E141" s="123"/>
-      <c r="F141" s="124"/>
+      <c r="B141" s="121"/>
+      <c r="C141" s="122"/>
+      <c r="D141" s="123"/>
+      <c r="E141" s="124"/>
+      <c r="F141" s="125"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
       <c r="A142" s="4"/>
-      <c r="B142" s="120"/>
-      <c r="C142" s="121"/>
-      <c r="D142" s="122"/>
-      <c r="E142" s="123"/>
-      <c r="F142" s="124"/>
+      <c r="B142" s="121"/>
+      <c r="C142" s="122"/>
+      <c r="D142" s="123"/>
+      <c r="E142" s="124"/>
+      <c r="F142" s="125"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:6">
       <c r="A143" s="4"/>
-      <c r="B143" s="120"/>
-      <c r="C143" s="121"/>
-      <c r="D143" s="122"/>
-      <c r="E143" s="123"/>
-      <c r="F143" s="124"/>
+      <c r="B143" s="121"/>
+      <c r="C143" s="122"/>
+      <c r="D143" s="123"/>
+      <c r="E143" s="124"/>
+      <c r="F143" s="125"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:6">
       <c r="A144" s="4"/>
-      <c r="B144" s="120"/>
-      <c r="C144" s="121"/>
-      <c r="D144" s="122"/>
-      <c r="E144" s="123"/>
-      <c r="F144" s="124"/>
+      <c r="B144" s="121"/>
+      <c r="C144" s="122"/>
+      <c r="D144" s="123"/>
+      <c r="E144" s="124"/>
+      <c r="F144" s="125"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:6">
       <c r="A145" s="4"/>
-      <c r="B145" s="120"/>
-      <c r="C145" s="121"/>
-      <c r="D145" s="122"/>
-      <c r="E145" s="123"/>
-      <c r="F145" s="124"/>
+      <c r="B145" s="121"/>
+      <c r="C145" s="122"/>
+      <c r="D145" s="123"/>
+      <c r="E145" s="124"/>
+      <c r="F145" s="125"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:6">
       <c r="A146" s="4"/>
-      <c r="B146" s="120"/>
-      <c r="C146" s="121"/>
-      <c r="D146" s="122"/>
-      <c r="E146" s="123"/>
-      <c r="F146" s="124"/>
+      <c r="B146" s="121"/>
+      <c r="C146" s="122"/>
+      <c r="D146" s="123"/>
+      <c r="E146" s="124"/>
+      <c r="F146" s="125"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:6">
       <c r="A147" s="4"/>
-      <c r="B147" s="120"/>
-      <c r="C147" s="121"/>
-      <c r="D147" s="122"/>
-      <c r="E147" s="123"/>
-      <c r="F147" s="124"/>
+      <c r="B147" s="121"/>
+      <c r="C147" s="122"/>
+      <c r="D147" s="123"/>
+      <c r="E147" s="124"/>
+      <c r="F147" s="125"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:6">
       <c r="A148" s="4"/>
-      <c r="B148" s="120"/>
-      <c r="C148" s="121"/>
-      <c r="D148" s="122"/>
-      <c r="E148" s="123"/>
-      <c r="F148" s="124"/>
+      <c r="B148" s="121"/>
+      <c r="C148" s="122"/>
+      <c r="D148" s="123"/>
+      <c r="E148" s="124"/>
+      <c r="F148" s="125"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:6">
       <c r="A149" s="4"/>
-      <c r="B149" s="120"/>
-      <c r="C149" s="121"/>
-      <c r="D149" s="122"/>
-      <c r="E149" s="123"/>
-      <c r="F149" s="124"/>
+      <c r="B149" s="121"/>
+      <c r="C149" s="122"/>
+      <c r="D149" s="123"/>
+      <c r="E149" s="124"/>
+      <c r="F149" s="125"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:6">
       <c r="A150" s="4"/>
-      <c r="B150" s="120"/>
-      <c r="C150" s="121"/>
-      <c r="D150" s="122"/>
-      <c r="E150" s="123"/>
-      <c r="F150" s="124"/>
+      <c r="B150" s="121"/>
+      <c r="C150" s="122"/>
+      <c r="D150" s="123"/>
+      <c r="E150" s="124"/>
+      <c r="F150" s="125"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:6">
       <c r="A151" s="4"/>
-      <c r="B151" s="120"/>
-      <c r="C151" s="121"/>
-      <c r="D151" s="122"/>
-      <c r="E151" s="123"/>
-      <c r="F151" s="124"/>
+      <c r="B151" s="121"/>
+      <c r="C151" s="122"/>
+      <c r="D151" s="123"/>
+      <c r="E151" s="124"/>
+      <c r="F151" s="125"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:6">
       <c r="A152" s="4"/>
-      <c r="B152" s="120"/>
-      <c r="C152" s="121"/>
-      <c r="D152" s="122"/>
-      <c r="E152" s="123"/>
-      <c r="F152" s="124"/>
+      <c r="B152" s="121"/>
+      <c r="C152" s="122"/>
+      <c r="D152" s="123"/>
+      <c r="E152" s="124"/>
+      <c r="F152" s="125"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:6">
       <c r="A153" s="4"/>
-      <c r="B153" s="120"/>
-      <c r="C153" s="121"/>
-      <c r="D153" s="122"/>
-      <c r="E153" s="123"/>
-      <c r="F153" s="124"/>
+      <c r="B153" s="121"/>
+      <c r="C153" s="122"/>
+      <c r="D153" s="123"/>
+      <c r="E153" s="124"/>
+      <c r="F153" s="125"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:6">
       <c r="A154" s="4"/>
-      <c r="B154" s="120"/>
-      <c r="C154" s="121"/>
-      <c r="D154" s="122"/>
-      <c r="E154" s="123"/>
-      <c r="F154" s="124"/>
+      <c r="B154" s="121"/>
+      <c r="C154" s="122"/>
+      <c r="D154" s="123"/>
+      <c r="E154" s="124"/>
+      <c r="F154" s="125"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:6">
       <c r="A155" s="4"/>
-      <c r="B155" s="120"/>
-      <c r="C155" s="121"/>
-      <c r="D155" s="122"/>
-      <c r="E155" s="123"/>
-      <c r="F155" s="124"/>
+      <c r="B155" s="121"/>
+      <c r="C155" s="122"/>
+      <c r="D155" s="123"/>
+      <c r="E155" s="124"/>
+      <c r="F155" s="125"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:6">
       <c r="A156" s="4"/>
-      <c r="B156" s="120"/>
-      <c r="C156" s="121"/>
-      <c r="D156" s="122"/>
-      <c r="E156" s="123"/>
-      <c r="F156" s="124"/>
+      <c r="B156" s="121"/>
+      <c r="C156" s="122"/>
+      <c r="D156" s="123"/>
+      <c r="E156" s="124"/>
+      <c r="F156" s="125"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:6">
       <c r="A157" s="4"/>
-      <c r="B157" s="120"/>
-      <c r="C157" s="121"/>
-      <c r="D157" s="122"/>
-      <c r="E157" s="123"/>
-      <c r="F157" s="124"/>
+      <c r="B157" s="121"/>
+      <c r="C157" s="122"/>
+      <c r="D157" s="123"/>
+      <c r="E157" s="124"/>
+      <c r="F157" s="125"/>
     </row>
     <row r="158" spans="2:5">
-      <c r="B158" s="125"/>
-      <c r="C158" s="126"/>
-      <c r="D158" s="127"/>
-      <c r="E158" s="128"/>
+      <c r="B158" s="126"/>
+      <c r="C158" s="127"/>
+      <c r="D158" s="128"/>
+      <c r="E158" s="129"/>
     </row>
     <row r="159" spans="2:5">
-      <c r="B159" s="125"/>
-      <c r="C159" s="126"/>
-      <c r="D159" s="127"/>
-      <c r="E159" s="128"/>
+      <c r="B159" s="126"/>
+      <c r="C159" s="127"/>
+      <c r="D159" s="128"/>
+      <c r="E159" s="129"/>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="125"/>
-      <c r="C160" s="126"/>
-      <c r="D160" s="127"/>
-      <c r="E160" s="128"/>
+      <c r="B160" s="126"/>
+      <c r="C160" s="127"/>
+      <c r="D160" s="128"/>
+      <c r="E160" s="129"/>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="125"/>
-      <c r="C161" s="126"/>
-      <c r="D161" s="127"/>
-      <c r="E161" s="128"/>
+      <c r="B161" s="126"/>
+      <c r="C161" s="127"/>
+      <c r="D161" s="128"/>
+      <c r="E161" s="129"/>
     </row>
     <row r="162" spans="2:5">
-      <c r="B162" s="125"/>
-      <c r="C162" s="126"/>
-      <c r="D162" s="127"/>
-      <c r="E162" s="128"/>
+      <c r="B162" s="126"/>
+      <c r="C162" s="127"/>
+      <c r="D162" s="128"/>
+      <c r="E162" s="129"/>
     </row>
     <row r="163" spans="2:5">
-      <c r="B163" s="125"/>
-      <c r="C163" s="126"/>
-      <c r="D163" s="127"/>
-      <c r="E163" s="128"/>
+      <c r="B163" s="126"/>
+      <c r="C163" s="127"/>
+      <c r="D163" s="128"/>
+      <c r="E163" s="129"/>
     </row>
     <row r="164" spans="2:5">
-      <c r="B164" s="125"/>
-      <c r="C164" s="126"/>
-      <c r="D164" s="127"/>
-      <c r="E164" s="128"/>
+      <c r="B164" s="126"/>
+      <c r="C164" s="127"/>
+      <c r="D164" s="128"/>
+      <c r="E164" s="129"/>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="125"/>
-      <c r="C165" s="126"/>
-      <c r="D165" s="127"/>
-      <c r="E165" s="128"/>
+      <c r="B165" s="126"/>
+      <c r="C165" s="127"/>
+      <c r="D165" s="128"/>
+      <c r="E165" s="129"/>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="125"/>
-      <c r="C166" s="126"/>
-      <c r="D166" s="127"/>
-      <c r="E166" s="128"/>
+      <c r="B166" s="126"/>
+      <c r="C166" s="127"/>
+      <c r="D166" s="128"/>
+      <c r="E166" s="129"/>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="125"/>
-      <c r="C167" s="126"/>
-      <c r="D167" s="127"/>
-      <c r="E167" s="128"/>
+      <c r="B167" s="126"/>
+      <c r="C167" s="127"/>
+      <c r="D167" s="128"/>
+      <c r="E167" s="129"/>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="125"/>
-      <c r="C168" s="126"/>
-      <c r="D168" s="127"/>
-      <c r="E168" s="128"/>
+      <c r="B168" s="126"/>
+      <c r="C168" s="127"/>
+      <c r="D168" s="128"/>
+      <c r="E168" s="129"/>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="125"/>
-      <c r="C169" s="126"/>
-      <c r="D169" s="127"/>
-      <c r="E169" s="128"/>
+      <c r="B169" s="126"/>
+      <c r="C169" s="127"/>
+      <c r="D169" s="128"/>
+      <c r="E169" s="129"/>
     </row>
     <row r="170" spans="2:5">
-      <c r="B170" s="125"/>
-      <c r="C170" s="126"/>
-      <c r="D170" s="127"/>
-      <c r="E170" s="128"/>
+      <c r="B170" s="126"/>
+      <c r="C170" s="127"/>
+      <c r="D170" s="128"/>
+      <c r="E170" s="129"/>
     </row>
     <row r="171" spans="2:5">
-      <c r="B171" s="125"/>
-      <c r="C171" s="126"/>
-      <c r="D171" s="127"/>
-      <c r="E171" s="128"/>
+      <c r="B171" s="126"/>
+      <c r="C171" s="127"/>
+      <c r="D171" s="128"/>
+      <c r="E171" s="129"/>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="125"/>
-      <c r="C172" s="126"/>
-      <c r="D172" s="127"/>
-      <c r="E172" s="128"/>
+      <c r="B172" s="126"/>
+      <c r="C172" s="127"/>
+      <c r="D172" s="128"/>
+      <c r="E172" s="129"/>
     </row>
     <row r="173" spans="2:5">
-      <c r="B173" s="125"/>
-      <c r="C173" s="126"/>
-      <c r="D173" s="127"/>
-      <c r="E173" s="128"/>
+      <c r="B173" s="126"/>
+      <c r="C173" s="127"/>
+      <c r="D173" s="128"/>
+      <c r="E173" s="129"/>
     </row>
     <row r="174" spans="2:5">
-      <c r="B174" s="125"/>
-      <c r="C174" s="126"/>
-      <c r="D174" s="127"/>
-      <c r="E174" s="128"/>
+      <c r="B174" s="126"/>
+      <c r="C174" s="127"/>
+      <c r="D174" s="128"/>
+      <c r="E174" s="129"/>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="125"/>
-      <c r="C175" s="126"/>
-      <c r="D175" s="127"/>
-      <c r="E175" s="128"/>
+      <c r="B175" s="126"/>
+      <c r="C175" s="127"/>
+      <c r="D175" s="128"/>
+      <c r="E175" s="129"/>
     </row>
     <row r="176" spans="2:5">
-      <c r="B176" s="125"/>
-      <c r="C176" s="126"/>
-      <c r="D176" s="127"/>
-      <c r="E176" s="128"/>
+      <c r="B176" s="126"/>
+      <c r="C176" s="127"/>
+      <c r="D176" s="128"/>
+      <c r="E176" s="129"/>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="125"/>
-      <c r="C177" s="126"/>
-      <c r="D177" s="127"/>
-      <c r="E177" s="128"/>
+      <c r="B177" s="126"/>
+      <c r="C177" s="127"/>
+      <c r="D177" s="128"/>
+      <c r="E177" s="129"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="125"/>
-      <c r="C178" s="126"/>
-      <c r="D178" s="127"/>
-      <c r="E178" s="128"/>
+      <c r="B178" s="126"/>
+      <c r="C178" s="127"/>
+      <c r="D178" s="128"/>
+      <c r="E178" s="129"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="125"/>
-      <c r="C179" s="126"/>
-      <c r="D179" s="127"/>
-      <c r="E179" s="128"/>
+      <c r="B179" s="126"/>
+      <c r="C179" s="127"/>
+      <c r="D179" s="128"/>
+      <c r="E179" s="129"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="125"/>
-      <c r="C180" s="126"/>
-      <c r="D180" s="127"/>
-      <c r="E180" s="128"/>
+      <c r="B180" s="126"/>
+      <c r="C180" s="127"/>
+      <c r="D180" s="128"/>
+      <c r="E180" s="129"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="125"/>
-      <c r="C181" s="126"/>
-      <c r="D181" s="127"/>
-      <c r="E181" s="128"/>
+      <c r="B181" s="126"/>
+      <c r="C181" s="127"/>
+      <c r="D181" s="128"/>
+      <c r="E181" s="129"/>
     </row>
     <row r="182" spans="2:5">
-      <c r="B182" s="125"/>
-      <c r="C182" s="126"/>
-      <c r="D182" s="127"/>
-      <c r="E182" s="128"/>
+      <c r="B182" s="126"/>
+      <c r="C182" s="127"/>
+      <c r="D182" s="128"/>
+      <c r="E182" s="129"/>
     </row>
     <row r="183" spans="2:5">
-      <c r="B183" s="125"/>
-      <c r="C183" s="126"/>
-      <c r="D183" s="127"/>
-      <c r="E183" s="128"/>
+      <c r="B183" s="126"/>
+      <c r="C183" s="127"/>
+      <c r="D183" s="128"/>
+      <c r="E183" s="129"/>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="125"/>
-      <c r="C184" s="126"/>
-      <c r="D184" s="127"/>
-      <c r="E184" s="128"/>
+      <c r="B184" s="126"/>
+      <c r="C184" s="127"/>
+      <c r="D184" s="128"/>
+      <c r="E184" s="129"/>
     </row>
     <row r="185" spans="2:5">
-      <c r="B185" s="125"/>
-      <c r="C185" s="126"/>
-      <c r="D185" s="127"/>
-      <c r="E185" s="128"/>
+      <c r="B185" s="126"/>
+      <c r="C185" s="127"/>
+      <c r="D185" s="128"/>
+      <c r="E185" s="129"/>
     </row>
     <row r="186" spans="2:5">
-      <c r="B186" s="125"/>
-      <c r="C186" s="126"/>
-      <c r="D186" s="127"/>
-      <c r="E186" s="128"/>
+      <c r="B186" s="126"/>
+      <c r="C186" s="127"/>
+      <c r="D186" s="128"/>
+      <c r="E186" s="129"/>
     </row>
     <row r="187" spans="2:5">
-      <c r="B187" s="125"/>
-      <c r="C187" s="126"/>
-      <c r="D187" s="127"/>
-      <c r="E187" s="128"/>
+      <c r="B187" s="126"/>
+      <c r="C187" s="127"/>
+      <c r="D187" s="128"/>
+      <c r="E187" s="129"/>
     </row>
     <row r="188" spans="2:5">
-      <c r="B188" s="125"/>
-      <c r="C188" s="126"/>
-      <c r="D188" s="127"/>
-      <c r="E188" s="128"/>
+      <c r="B188" s="126"/>
+      <c r="C188" s="127"/>
+      <c r="D188" s="128"/>
+      <c r="E188" s="129"/>
     </row>
     <row r="189" spans="2:5">
-      <c r="B189" s="125"/>
-      <c r="C189" s="126"/>
-      <c r="D189" s="127"/>
-      <c r="E189" s="128"/>
+      <c r="B189" s="126"/>
+      <c r="C189" s="127"/>
+      <c r="D189" s="128"/>
+      <c r="E189" s="129"/>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="125"/>
-      <c r="C190" s="126"/>
-      <c r="D190" s="127"/>
-      <c r="E190" s="128"/>
+      <c r="B190" s="126"/>
+      <c r="C190" s="127"/>
+      <c r="D190" s="128"/>
+      <c r="E190" s="129"/>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="125"/>
-      <c r="C191" s="126"/>
-      <c r="D191" s="127"/>
-      <c r="E191" s="128"/>
+      <c r="B191" s="126"/>
+      <c r="C191" s="127"/>
+      <c r="D191" s="128"/>
+      <c r="E191" s="129"/>
     </row>
     <row r="192" spans="2:5">
-      <c r="B192" s="125"/>
-      <c r="C192" s="126"/>
-      <c r="D192" s="127"/>
-      <c r="E192" s="128"/>
+      <c r="B192" s="126"/>
+      <c r="C192" s="127"/>
+      <c r="D192" s="128"/>
+      <c r="E192" s="129"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="125"/>
-      <c r="C193" s="126"/>
-      <c r="D193" s="127"/>
-      <c r="E193" s="128"/>
+      <c r="B193" s="126"/>
+      <c r="C193" s="127"/>
+      <c r="D193" s="128"/>
+      <c r="E193" s="129"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="125"/>
-      <c r="C194" s="126"/>
-      <c r="D194" s="127"/>
-      <c r="E194" s="128"/>
+      <c r="B194" s="126"/>
+      <c r="C194" s="127"/>
+      <c r="D194" s="128"/>
+      <c r="E194" s="129"/>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="125"/>
-      <c r="C195" s="126"/>
-      <c r="D195" s="127"/>
-      <c r="E195" s="128"/>
+      <c r="B195" s="126"/>
+      <c r="C195" s="127"/>
+      <c r="D195" s="128"/>
+      <c r="E195" s="129"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="125"/>
-      <c r="C196" s="126"/>
-      <c r="D196" s="127"/>
-      <c r="E196" s="128"/>
+      <c r="B196" s="126"/>
+      <c r="C196" s="127"/>
+      <c r="D196" s="128"/>
+      <c r="E196" s="129"/>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="125"/>
-      <c r="C197" s="126"/>
-      <c r="D197" s="127"/>
-      <c r="E197" s="128"/>
+      <c r="B197" s="126"/>
+      <c r="C197" s="127"/>
+      <c r="D197" s="128"/>
+      <c r="E197" s="129"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="125"/>
-      <c r="C198" s="126"/>
-      <c r="D198" s="127"/>
-      <c r="E198" s="128"/>
+      <c r="B198" s="126"/>
+      <c r="C198" s="127"/>
+      <c r="D198" s="128"/>
+      <c r="E198" s="129"/>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="125"/>
-      <c r="C199" s="126"/>
-      <c r="D199" s="127"/>
-      <c r="E199" s="128"/>
+      <c r="B199" s="126"/>
+      <c r="C199" s="127"/>
+      <c r="D199" s="128"/>
+      <c r="E199" s="129"/>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="125"/>
-      <c r="C200" s="126"/>
-      <c r="D200" s="127"/>
-      <c r="E200" s="128"/>
+      <c r="B200" s="126"/>
+      <c r="C200" s="127"/>
+      <c r="D200" s="128"/>
+      <c r="E200" s="129"/>
     </row>
     <row r="201" spans="2:5">
-      <c r="B201" s="125"/>
-      <c r="C201" s="126"/>
-      <c r="D201" s="127"/>
-      <c r="E201" s="128"/>
+      <c r="B201" s="126"/>
+      <c r="C201" s="127"/>
+      <c r="D201" s="128"/>
+      <c r="E201" s="129"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="125"/>
-      <c r="C202" s="126"/>
-      <c r="D202" s="127"/>
-      <c r="E202" s="128"/>
+      <c r="B202" s="126"/>
+      <c r="C202" s="127"/>
+      <c r="D202" s="128"/>
+      <c r="E202" s="129"/>
     </row>
     <row r="203" spans="2:5">
-      <c r="B203" s="125"/>
-      <c r="C203" s="126"/>
-      <c r="D203" s="127"/>
-      <c r="E203" s="128"/>
+      <c r="B203" s="126"/>
+      <c r="C203" s="127"/>
+      <c r="D203" s="128"/>
+      <c r="E203" s="129"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="125"/>
-      <c r="C204" s="126"/>
-      <c r="D204" s="127"/>
-      <c r="E204" s="128"/>
+      <c r="B204" s="126"/>
+      <c r="C204" s="127"/>
+      <c r="D204" s="128"/>
+      <c r="E204" s="129"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="125"/>
-      <c r="C205" s="126"/>
-      <c r="D205" s="127"/>
-      <c r="E205" s="128"/>
+      <c r="B205" s="126"/>
+      <c r="C205" s="127"/>
+      <c r="D205" s="128"/>
+      <c r="E205" s="129"/>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="125"/>
-      <c r="C206" s="126"/>
-      <c r="D206" s="127"/>
-      <c r="E206" s="128"/>
+      <c r="B206" s="126"/>
+      <c r="C206" s="127"/>
+      <c r="D206" s="128"/>
+      <c r="E206" s="129"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="125"/>
-      <c r="C207" s="126"/>
-      <c r="D207" s="127"/>
-      <c r="E207" s="128"/>
+      <c r="B207" s="126"/>
+      <c r="C207" s="127"/>
+      <c r="D207" s="128"/>
+      <c r="E207" s="129"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="125"/>
-      <c r="C208" s="126"/>
-      <c r="D208" s="127"/>
-      <c r="E208" s="128"/>
+      <c r="B208" s="126"/>
+      <c r="C208" s="127"/>
+      <c r="D208" s="128"/>
+      <c r="E208" s="129"/>
     </row>
     <row r="209" spans="2:5">
-      <c r="B209" s="125"/>
-      <c r="C209" s="126"/>
-      <c r="D209" s="127"/>
-      <c r="E209" s="128"/>
+      <c r="B209" s="126"/>
+      <c r="C209" s="127"/>
+      <c r="D209" s="128"/>
+      <c r="E209" s="129"/>
     </row>
     <row r="210" spans="2:5">
-      <c r="B210" s="125"/>
-      <c r="C210" s="126"/>
-      <c r="D210" s="127"/>
-      <c r="E210" s="128"/>
+      <c r="B210" s="126"/>
+      <c r="C210" s="127"/>
+      <c r="D210" s="128"/>
+      <c r="E210" s="129"/>
     </row>
     <row r="211" spans="2:5">
-      <c r="B211" s="125"/>
-      <c r="C211" s="126"/>
-      <c r="D211" s="127"/>
-      <c r="E211" s="128"/>
+      <c r="B211" s="126"/>
+      <c r="C211" s="127"/>
+      <c r="D211" s="128"/>
+      <c r="E211" s="129"/>
     </row>
     <row r="212" spans="2:5">
-      <c r="B212" s="125"/>
-      <c r="C212" s="126"/>
-      <c r="D212" s="127"/>
-      <c r="E212" s="128"/>
+      <c r="B212" s="126"/>
+      <c r="C212" s="127"/>
+      <c r="D212" s="128"/>
+      <c r="E212" s="129"/>
     </row>
     <row r="213" spans="2:5">
-      <c r="B213" s="125"/>
-      <c r="C213" s="126"/>
-      <c r="D213" s="127"/>
-      <c r="E213" s="128"/>
+      <c r="B213" s="126"/>
+      <c r="C213" s="127"/>
+      <c r="D213" s="128"/>
+      <c r="E213" s="129"/>
     </row>
     <row r="214" spans="2:5">
-      <c r="B214" s="125"/>
-      <c r="C214" s="126"/>
-      <c r="D214" s="127"/>
-      <c r="E214" s="128"/>
+      <c r="B214" s="126"/>
+      <c r="C214" s="127"/>
+      <c r="D214" s="128"/>
+      <c r="E214" s="129"/>
     </row>
     <row r="215" spans="2:5">
-      <c r="B215" s="125"/>
-      <c r="C215" s="126"/>
-      <c r="D215" s="127"/>
-      <c r="E215" s="128"/>
+      <c r="B215" s="126"/>
+      <c r="C215" s="127"/>
+      <c r="D215" s="128"/>
+      <c r="E215" s="129"/>
     </row>
     <row r="216" spans="2:5">
-      <c r="B216" s="125"/>
-      <c r="C216" s="126"/>
-      <c r="D216" s="127"/>
-      <c r="E216" s="128"/>
+      <c r="B216" s="126"/>
+      <c r="C216" s="127"/>
+      <c r="D216" s="128"/>
+      <c r="E216" s="129"/>
     </row>
     <row r="217" spans="2:5">
-      <c r="B217" s="125"/>
-      <c r="C217" s="126"/>
-      <c r="D217" s="127"/>
-      <c r="E217" s="128"/>
+      <c r="B217" s="126"/>
+      <c r="C217" s="127"/>
+      <c r="D217" s="128"/>
+      <c r="E217" s="129"/>
     </row>
     <row r="218" spans="2:5">
-      <c r="B218" s="125"/>
-      <c r="C218" s="126"/>
-      <c r="D218" s="127"/>
-      <c r="E218" s="128"/>
+      <c r="B218" s="126"/>
+      <c r="C218" s="127"/>
+      <c r="D218" s="128"/>
+      <c r="E218" s="129"/>
     </row>
     <row r="219" spans="2:5">
-      <c r="B219" s="125"/>
-      <c r="C219" s="126"/>
-      <c r="D219" s="127"/>
-      <c r="E219" s="128"/>
+      <c r="B219" s="126"/>
+      <c r="C219" s="127"/>
+      <c r="D219" s="128"/>
+      <c r="E219" s="129"/>
     </row>
     <row r="220" spans="2:5">
-      <c r="B220" s="125"/>
-      <c r="C220" s="126"/>
-      <c r="D220" s="127"/>
-      <c r="E220" s="128"/>
+      <c r="B220" s="126"/>
+      <c r="C220" s="127"/>
+      <c r="D220" s="128"/>
+      <c r="E220" s="129"/>
     </row>
     <row r="221" spans="2:5">
-      <c r="B221" s="125"/>
-      <c r="C221" s="126"/>
-      <c r="D221" s="127"/>
-      <c r="E221" s="128"/>
+      <c r="B221" s="126"/>
+      <c r="C221" s="127"/>
+      <c r="D221" s="128"/>
+      <c r="E221" s="129"/>
     </row>
     <row r="222" spans="2:5">
-      <c r="B222" s="125"/>
-      <c r="C222" s="126"/>
-      <c r="D222" s="127"/>
-      <c r="E222" s="128"/>
+      <c r="B222" s="126"/>
+      <c r="C222" s="127"/>
+      <c r="D222" s="128"/>
+      <c r="E222" s="129"/>
     </row>
     <row r="223" spans="2:5">
-      <c r="B223" s="125"/>
-      <c r="C223" s="126"/>
-      <c r="D223" s="127"/>
-      <c r="E223" s="128"/>
+      <c r="B223" s="126"/>
+      <c r="C223" s="127"/>
+      <c r="D223" s="128"/>
+      <c r="E223" s="129"/>
     </row>
     <row r="224" spans="2:5">
-      <c r="B224" s="125"/>
-      <c r="C224" s="126"/>
-      <c r="D224" s="127"/>
-      <c r="E224" s="128"/>
+      <c r="B224" s="126"/>
+      <c r="C224" s="127"/>
+      <c r="D224" s="128"/>
+      <c r="E224" s="129"/>
     </row>
     <row r="225" spans="2:5">
-      <c r="B225" s="125"/>
-      <c r="C225" s="126"/>
-      <c r="D225" s="127"/>
-      <c r="E225" s="128"/>
+      <c r="B225" s="126"/>
+      <c r="C225" s="127"/>
+      <c r="D225" s="128"/>
+      <c r="E225" s="129"/>
     </row>
     <row r="226" spans="2:5">
-      <c r="B226" s="125"/>
-      <c r="C226" s="126"/>
-      <c r="D226" s="127"/>
-      <c r="E226" s="128"/>
+      <c r="B226" s="126"/>
+      <c r="C226" s="127"/>
+      <c r="D226" s="128"/>
+      <c r="E226" s="129"/>
     </row>
     <row r="227" spans="2:5">
-      <c r="B227" s="125"/>
-      <c r="C227" s="126"/>
-      <c r="D227" s="127"/>
-      <c r="E227" s="128"/>
+      <c r="B227" s="126"/>
+      <c r="C227" s="127"/>
+      <c r="D227" s="128"/>
+      <c r="E227" s="129"/>
     </row>
     <row r="228" spans="2:5">
-      <c r="B228" s="125"/>
-      <c r="C228" s="126"/>
-      <c r="D228" s="127"/>
-      <c r="E228" s="128"/>
+      <c r="B228" s="126"/>
+      <c r="C228" s="127"/>
+      <c r="D228" s="128"/>
+      <c r="E228" s="129"/>
     </row>
     <row r="229" spans="2:5">
-      <c r="B229" s="125"/>
-      <c r="C229" s="126"/>
-      <c r="D229" s="127"/>
-      <c r="E229" s="128"/>
+      <c r="B229" s="126"/>
+      <c r="C229" s="127"/>
+      <c r="D229" s="128"/>
+      <c r="E229" s="129"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="125"/>
-      <c r="C230" s="126"/>
-      <c r="D230" s="127"/>
-      <c r="E230" s="128"/>
+      <c r="B230" s="126"/>
+      <c r="C230" s="127"/>
+      <c r="D230" s="128"/>
+      <c r="E230" s="129"/>
     </row>
     <row r="231" spans="2:5">
-      <c r="B231" s="125"/>
-      <c r="C231" s="126"/>
-      <c r="D231" s="127"/>
-      <c r="E231" s="128"/>
+      <c r="B231" s="126"/>
+      <c r="C231" s="127"/>
+      <c r="D231" s="128"/>
+      <c r="E231" s="129"/>
     </row>
     <row r="232" spans="2:5">
-      <c r="B232" s="125"/>
-      <c r="C232" s="126"/>
-      <c r="D232" s="127"/>
-      <c r="E232" s="128"/>
+      <c r="B232" s="126"/>
+      <c r="C232" s="127"/>
+      <c r="D232" s="128"/>
+      <c r="E232" s="129"/>
     </row>
     <row r="233" spans="2:5">
-      <c r="B233" s="125"/>
-      <c r="C233" s="126"/>
-      <c r="D233" s="127"/>
-      <c r="E233" s="128"/>
+      <c r="B233" s="126"/>
+      <c r="C233" s="127"/>
+      <c r="D233" s="128"/>
+      <c r="E233" s="129"/>
     </row>
     <row r="234" spans="2:5">
-      <c r="B234" s="125"/>
-      <c r="C234" s="126"/>
-      <c r="D234" s="127"/>
-      <c r="E234" s="128"/>
+      <c r="B234" s="126"/>
+      <c r="C234" s="127"/>
+      <c r="D234" s="128"/>
+      <c r="E234" s="129"/>
     </row>
     <row r="235" spans="2:5">
-      <c r="B235" s="125"/>
-      <c r="C235" s="126"/>
-      <c r="D235" s="127"/>
-      <c r="E235" s="128"/>
+      <c r="B235" s="126"/>
+      <c r="C235" s="127"/>
+      <c r="D235" s="128"/>
+      <c r="E235" s="129"/>
     </row>
     <row r="236" spans="2:5">
-      <c r="B236" s="125"/>
-      <c r="C236" s="126"/>
-      <c r="D236" s="127"/>
-      <c r="E236" s="128"/>
+      <c r="B236" s="126"/>
+      <c r="C236" s="127"/>
+      <c r="D236" s="128"/>
+      <c r="E236" s="129"/>
     </row>
     <row r="237" spans="2:5">
-      <c r="B237" s="125"/>
-      <c r="C237" s="126"/>
-      <c r="D237" s="127"/>
-      <c r="E237" s="128"/>
+      <c r="B237" s="126"/>
+      <c r="C237" s="127"/>
+      <c r="D237" s="128"/>
+      <c r="E237" s="129"/>
     </row>
     <row r="238" spans="2:5">
-      <c r="B238" s="125"/>
-      <c r="C238" s="126"/>
-      <c r="D238" s="127"/>
-      <c r="E238" s="128"/>
+      <c r="B238" s="126"/>
+      <c r="C238" s="127"/>
+      <c r="D238" s="128"/>
+      <c r="E238" s="129"/>
     </row>
     <row r="239" spans="2:5">
-      <c r="B239" s="125"/>
-      <c r="C239" s="126"/>
-      <c r="D239" s="127"/>
-      <c r="E239" s="128"/>
+      <c r="B239" s="126"/>
+      <c r="C239" s="127"/>
+      <c r="D239" s="128"/>
+      <c r="E239" s="129"/>
     </row>
     <row r="240" spans="2:5">
-      <c r="B240" s="125"/>
-      <c r="C240" s="126"/>
-      <c r="D240" s="127"/>
-      <c r="E240" s="128"/>
+      <c r="B240" s="126"/>
+      <c r="C240" s="127"/>
+      <c r="D240" s="128"/>
+      <c r="E240" s="129"/>
     </row>
     <row r="241" spans="2:5">
-      <c r="B241" s="125"/>
-      <c r="C241" s="126"/>
-      <c r="D241" s="127"/>
-      <c r="E241" s="128"/>
+      <c r="B241" s="126"/>
+      <c r="C241" s="127"/>
+      <c r="D241" s="128"/>
+      <c r="E241" s="129"/>
     </row>
     <row r="242" spans="2:5">
-      <c r="B242" s="125"/>
-      <c r="C242" s="126"/>
-      <c r="D242" s="127"/>
-      <c r="E242" s="128"/>
+      <c r="B242" s="126"/>
+      <c r="C242" s="127"/>
+      <c r="D242" s="128"/>
+      <c r="E242" s="129"/>
     </row>
     <row r="243" spans="2:5">
-      <c r="B243" s="125"/>
-      <c r="C243" s="126"/>
-      <c r="D243" s="127"/>
-      <c r="E243" s="128"/>
+      <c r="B243" s="126"/>
+      <c r="C243" s="127"/>
+      <c r="D243" s="128"/>
+      <c r="E243" s="129"/>
     </row>
     <row r="244" spans="2:5">
-      <c r="B244" s="125"/>
-      <c r="C244" s="126"/>
-      <c r="D244" s="127"/>
-      <c r="E244" s="128"/>
+      <c r="B244" s="126"/>
+      <c r="C244" s="127"/>
+      <c r="D244" s="128"/>
+      <c r="E244" s="129"/>
     </row>
     <row r="245" spans="2:5">
-      <c r="B245" s="125"/>
-      <c r="C245" s="126"/>
-      <c r="D245" s="127"/>
-      <c r="E245" s="128"/>
+      <c r="B245" s="126"/>
+      <c r="C245" s="127"/>
+      <c r="D245" s="128"/>
+      <c r="E245" s="129"/>
     </row>
     <row r="246" spans="2:5">
-      <c r="B246" s="125"/>
-      <c r="C246" s="126"/>
-      <c r="D246" s="127"/>
-      <c r="E246" s="128"/>
+      <c r="B246" s="126"/>
+      <c r="C246" s="127"/>
+      <c r="D246" s="128"/>
+      <c r="E246" s="129"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/dr/protected/commands/template/m_template_one.xlsx
+++ b/dr/protected/commands/template/m_template_one.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="6" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="177">
   <si>
     <t>地区表现标准月报表</t>
   </si>
@@ -722,7 +722,7 @@
     <t>技术员生产力</t>
   </si>
   <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+    <t>技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
   </si>
   <si>
     <t>&gt;20% : 5
@@ -733,7 +733,7 @@
 &lt; -30% : 0</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
+    <t>技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
   </si>
   <si>
     <t>&gt;70% : 5
@@ -741,7 +741,7 @@
 10% - 30% ： 3</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额</t>
+    <t>技术员最高生意额技术员金额</t>
   </si>
   <si>
     <t>仅供参考，不计算分数</t>
@@ -914,6 +914,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
       <t>新合同5天</t>
     </r>
     <r>
@@ -1352,14 +1358,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1451,10 +1457,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1465,7 +1484,89 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1480,115 +1581,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1607,17 +1603,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1641,6 +1647,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1684,7 +1701,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,13 +1791,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,19 +1875,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,7 +1905,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,145 +1947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1900,55 +1965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,6 +2042,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2035,6 +2067,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2063,28 +2106,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2115,20 +2141,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="62"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2147,246 +2173,237 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,7 +2426,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -2430,7 +2447,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2448,7 +2465,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2478,25 +2495,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2514,19 +2531,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2535,7 +2552,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2544,7 +2561,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2553,19 +2570,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2580,7 +2597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2589,7 +2606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,7 +2615,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2607,13 +2624,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2622,7 +2639,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -2637,7 +2654,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2646,19 +2663,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2673,7 +2690,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2682,28 +2699,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2715,7 +2732,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2724,13 +2741,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2739,7 +2756,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2748,7 +2765,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2757,7 +2774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -2772,7 +2789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -2795,10 +2812,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2830,26 +2847,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3214,8 +3231,8 @@
   <sheetPr/>
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
